--- a/test_spec.xlsx
+++ b/test_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10\Desktop\Szoftech\se-lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA01E5-26A9-433F-B9F4-5CB97C2C53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB4432-9DC8-4DC3-B760-2BB5BB2B262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1904699A-E2A7-4954-9699-66DEBA9CE8A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1904699A-E2A7-4954-9699-66DEBA9CE8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Tesztelt követelmény</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve"> TORPEDO,ALL</t>
+  </si>
+  <si>
+    <t>All Firing Modes</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -769,13 +775,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -836,13 +842,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -903,13 +909,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -970,13 +976,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1037,13 +1043,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1104,13 +1110,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1171,13 +1177,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1628,20 +1634,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B5BCC-0E09-440A-9A83-F226D2DC64A4}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1665,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1674,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1701,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1710,7 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1719,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1728,7 @@
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1746,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1749,11 +1755,11 @@
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1768,7 @@
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1786,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1789,10 +1795,10 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1807,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1819,7 +1825,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
@@ -1828,10 +1834,10 @@
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1846,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1855,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1864,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1867,10 +1873,10 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1885,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1894,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1903,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1905,6 +1911,81 @@
         <v>11</v>
       </c>
       <c r="D34" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1932,13 +2013,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1954,13 +2035,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1976,13 +2057,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1998,13 +2079,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2020,13 +2101,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2042,13 +2123,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2064,13 +2145,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
